--- a/Study 3/Shocks/GCAM/CP_EI - 2015.xlsx
+++ b/Study 3/Shocks/GCAM/CP_EI - 2015.xlsx
@@ -11562,7 +11562,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.7027354384229539</v>
+        <v>0.7027354384229538</v>
       </c>
     </row>
     <row r="7">
@@ -11682,7 +11682,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.3516419473321174</v>
+        <v>0.3516419473321173</v>
       </c>
     </row>
     <row r="10">
@@ -11842,7 +11842,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.311533979705214</v>
+        <v>0.3115339797052139</v>
       </c>
     </row>
     <row r="14">
@@ -11922,7 +11922,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.002450158466846577</v>
+        <v>0.002450158466846578</v>
       </c>
     </row>
     <row r="16">
@@ -12362,7 +12362,7 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.001695928559031589</v>
+        <v>0.001695928559031588</v>
       </c>
     </row>
     <row r="27">
@@ -12522,7 +12522,7 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>4.589837975039935e-06</v>
+        <v>4.589837975039934e-06</v>
       </c>
     </row>
     <row r="31">
@@ -12642,7 +12642,7 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.0008564268261911469</v>
+        <v>0.0008564268261911468</v>
       </c>
     </row>
     <row r="34">
@@ -12682,7 +12682,7 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.007612927880649876</v>
+        <v>0.007612927880649875</v>
       </c>
     </row>
     <row r="35">
@@ -12722,7 +12722,7 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.03528078921034647</v>
+        <v>0.03528078921034648</v>
       </c>
     </row>
     <row r="36">
@@ -12802,7 +12802,7 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.00775492338817444</v>
+        <v>0.007754923388174439</v>
       </c>
     </row>
     <row r="38">
@@ -12882,7 +12882,7 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.09692390611087053</v>
+        <v>0.09692390611087054</v>
       </c>
     </row>
     <row r="40">
